--- a/sql-jumia-workbook.xlsx
+++ b/sql-jumia-workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23837" windowHeight="11477"/>
+    <workbookView windowWidth="23837" windowHeight="11477" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="countries" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>country_ID</t>
   </si>
@@ -253,6 +253,15 @@
   </si>
   <si>
     <t>delivery_id</t>
+  </si>
+  <si>
+    <t>deliverydate</t>
+  </si>
+  <si>
+    <t>15/12/23</t>
+  </si>
+  <si>
+    <t>16/12/23</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1419,7 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1605,20 +1614,21 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.61261261261261" defaultRowHeight="14.55" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.1081081081081" customWidth="1"/>
     <col min="2" max="2" width="11.6576576576577" customWidth="1"/>
     <col min="3" max="3" width="10.2702702702703" customWidth="1"/>
+    <col min="4" max="4" width="12.1981981981982" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1628,8 +1638,11 @@
       <c r="C1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1639,8 +1652,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1650,8 +1666,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1660,6 +1679,9 @@
       </c>
       <c r="C4">
         <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
